--- a/database excel/tb_sub_unit.xlsx
+++ b/database excel/tb_sub_unit.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Kerja\MOROWALI\WEB2\K2\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ci4\database excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Kd_Urusan</t>
   </si>
@@ -175,12 +175,15 @@
   </si>
   <si>
     <t>Badan Kepegawaian Daerah dan Pengembangan Sumber Daya Manusia</t>
+  </si>
+  <si>
+    <t>Rumah Sakit Umum Daerah Morowali</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -981,9 +984,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1043,16 +1048,16 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1060,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1069,7 +1074,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1077,7 +1082,7 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1086,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1097,13 +1102,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1111,16 +1116,16 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1131,30 +1136,30 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
         <v>2</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1162,7 +1167,7 @@
         <v>2</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1171,7 +1176,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1179,7 +1184,7 @@
         <v>2</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1188,7 +1193,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1196,7 +1201,7 @@
         <v>2</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1205,7 +1210,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1213,7 +1218,7 @@
         <v>2</v>
       </c>
       <c r="B14">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1222,7 +1227,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1230,7 +1235,7 @@
         <v>2</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1239,7 +1244,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1247,7 +1252,7 @@
         <v>2</v>
       </c>
       <c r="B16">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1256,7 +1261,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1264,7 +1269,7 @@
         <v>2</v>
       </c>
       <c r="B17">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1273,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1281,7 +1286,7 @@
         <v>2</v>
       </c>
       <c r="B18">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1290,7 +1295,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1298,7 +1303,7 @@
         <v>2</v>
       </c>
       <c r="B19">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1307,15 +1312,15 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1324,7 +1329,7 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1332,7 +1337,7 @@
         <v>3</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1341,7 +1346,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1349,7 +1354,7 @@
         <v>3</v>
       </c>
       <c r="B22">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1358,15 +1363,15 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -1375,7 +1380,7 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1386,13 +1391,13 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1403,13 +1408,13 @@
         <v>1</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1423,10 +1428,10 @@
         <v>3</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1440,10 +1445,10 @@
         <v>3</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1457,10 +1462,10 @@
         <v>3</v>
       </c>
       <c r="D28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1474,10 +1479,10 @@
         <v>3</v>
       </c>
       <c r="D29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1491,10 +1496,10 @@
         <v>3</v>
       </c>
       <c r="D30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1508,10 +1513,10 @@
         <v>3</v>
       </c>
       <c r="D31">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1525,10 +1530,10 @@
         <v>3</v>
       </c>
       <c r="D32">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1542,10 +1547,10 @@
         <v>3</v>
       </c>
       <c r="D33">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1556,13 +1561,13 @@
         <v>1</v>
       </c>
       <c r="C34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1573,13 +1578,13 @@
         <v>1</v>
       </c>
       <c r="C35">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1590,13 +1595,13 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1607,13 +1612,13 @@
         <v>1</v>
       </c>
       <c r="C37">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1624,13 +1629,13 @@
         <v>1</v>
       </c>
       <c r="C38">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1641,13 +1646,13 @@
         <v>1</v>
       </c>
       <c r="C39">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1658,13 +1663,13 @@
         <v>1</v>
       </c>
       <c r="C40">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1675,13 +1680,13 @@
         <v>1</v>
       </c>
       <c r="C41">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1692,13 +1697,13 @@
         <v>1</v>
       </c>
       <c r="C42">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1709,13 +1714,13 @@
         <v>1</v>
       </c>
       <c r="C43">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1723,16 +1728,16 @@
         <v>4</v>
       </c>
       <c r="B44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1740,7 +1745,7 @@
         <v>4</v>
       </c>
       <c r="B45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -1749,7 +1754,7 @@
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1757,16 +1762,16 @@
         <v>4</v>
       </c>
       <c r="B46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C46">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1777,13 +1782,13 @@
         <v>4</v>
       </c>
       <c r="C47">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1791,7 +1796,7 @@
         <v>4</v>
       </c>
       <c r="B48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C48">
         <v>6</v>
@@ -1800,6 +1805,23 @@
         <v>1</v>
       </c>
       <c r="E48" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>4</v>
+      </c>
+      <c r="B49">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>6</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
         <v>51</v>
       </c>
     </row>
